--- a/app/docs/todo.xlsx
+++ b/app/docs/todo.xlsx
@@ -813,7 +813,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +853,7 @@
       </c>
       <c r="G2" s="1">
         <f>SUM(D3:D27)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="45">
@@ -1030,11 +1030,11 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <f>B15*C15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="180">
@@ -1045,11 +1045,11 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <f>B16*C16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="390">
@@ -1060,11 +1060,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <f>B17*C17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="409.5">
@@ -1228,7 +1228,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{00610075-0036-41F7-9D87-00D2003D00EA}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{00730019-003A-4D64-BF38-0041006C00F3}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1245,7 +1245,7 @@
           <xm:sqref>C:D</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" text="0" id="{008F000C-00A8-40FC-B2B0-0093001A009F}">
+          <x14:cfRule type="containsText" priority="1" text="0" id="{00AA0008-006B-41D9-9EAB-006A009E00EE}">
             <xm:f>NOT(ISERROR(SEARCH("0",C1)))</xm:f>
             <x14:dxf>
               <font>

--- a/app/docs/todo.xlsx
+++ b/app/docs/todo.xlsx
@@ -134,12 +134,10 @@
     <font>
       <b/>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -188,13 +186,13 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -218,7 +216,7 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -239,7 +237,7 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -248,13 +246,13 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -813,7 +811,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +851,7 @@
       </c>
       <c r="G2" s="1">
         <f>SUM(D3:D27)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="45">
@@ -867,11 +865,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f>B3*C3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="150">
+        <f t="shared" ref="D3:D9" si="0">B3*C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="24">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -882,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -897,11 +895,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <f>B5*C5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="120">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="24">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -912,11 +910,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <f>B6*C6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="210">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="36">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -927,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -950,11 +948,11 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="225">
+    <row r="10" ht="36">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -965,11 +963,11 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*C10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="195">
+        <f t="shared" ref="D10:D27" si="1">B10*C10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="24">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -980,11 +978,11 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*C11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="24">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -995,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*C12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1018,11 +1016,11 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*C14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="390">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="60">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1033,11 +1031,11 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*C15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="180">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="24">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1048,11 +1046,11 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f>B16*C16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="390">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="60">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -1063,11 +1061,11 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f>B17*C17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="409.5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="72">
       <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
@@ -1078,11 +1076,11 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f>B18*C18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="24">
       <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
@@ -1093,11 +1091,11 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f>B19*C19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="24">
       <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f>B20*C20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1120,7 +1118,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" ht="195">
+    <row r="22" ht="36">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
@@ -1131,11 +1129,11 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f>B22*C22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="24">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
@@ -1146,11 +1144,11 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f>B23*C23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="210">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="36">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
@@ -1158,14 +1156,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f>B24*C24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="36">
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
@@ -1176,11 +1174,11 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f>B25*C25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="255">
+    <row r="26" ht="36">
       <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
@@ -1191,11 +1189,11 @@
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f>B26*C26</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="300">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="48">
       <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
@@ -1206,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <f>B27*C27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1228,7 +1226,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{00730019-003A-4D64-BF38-0041006C00F3}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{00AA002B-00F8-4CAB-84C5-00DE00DD008A}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1245,7 +1243,7 @@
           <xm:sqref>C:D</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" text="0" id="{00AA0008-006B-41D9-9EAB-006A009E00EE}">
+          <x14:cfRule type="containsText" priority="1" text="0" id="{00FA001C-006E-4190-9D37-000300830099}">
             <xm:f>NOT(ISERROR(SEARCH("0",C1)))</xm:f>
             <x14:dxf>
               <font>
